--- a/public/files/purchase-report.xlsx
+++ b/public/files/purchase-report.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://accesshub-my.sharepoint.com/personal/psaunders_guidehouse_com/Documents/Documents/GSA SmartPay/Purchase FPDS data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShaneEBrosius\Desktop\reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73B1DA31-AC30-4BC7-843F-7E55E3C1DF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D63E08-2AA6-4ADE-A381-5FBA792640EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FY2022" sheetId="7" r:id="rId1"/>
-    <sheet name="FY2021" sheetId="6" r:id="rId2"/>
-    <sheet name="FY2020" sheetId="5" r:id="rId3"/>
-    <sheet name="FY2019" sheetId="4" r:id="rId4"/>
-    <sheet name="FY2018" sheetId="1" r:id="rId5"/>
-    <sheet name="FY2017" sheetId="2" r:id="rId6"/>
-    <sheet name="FY2016" sheetId="3" r:id="rId7"/>
+    <sheet name="FY2023" sheetId="8" r:id="rId1"/>
+    <sheet name="FY2022" sheetId="1" r:id="rId2"/>
+    <sheet name="FY2021" sheetId="2" r:id="rId3"/>
+    <sheet name="FY2020" sheetId="3" r:id="rId4"/>
+    <sheet name="FY2019" sheetId="4" r:id="rId5"/>
+    <sheet name="FY2018" sheetId="5" r:id="rId6"/>
+    <sheet name="FY2017" sheetId="6" r:id="rId7"/>
+    <sheet name="FY2016" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +40,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="44">
+  <si>
+    <t>GSA SmartPay® Purchase Card Statistics</t>
+  </si>
   <si>
     <t>Agency Name</t>
   </si>
@@ -60,9 +67,6 @@
   </si>
   <si>
     <t>Agency for International Development</t>
-  </si>
-  <si>
-    <t>All Other Agencies</t>
   </si>
   <si>
     <t>Department of Agriculture</t>
@@ -110,6 +114,12 @@
     <t>Department of Treasury</t>
   </si>
   <si>
+    <t>VA Prime Vendor</t>
+  </si>
+  <si>
+    <t>VA Non-Prime Vendor</t>
+  </si>
+  <si>
     <t>Environmental Protection Agency</t>
   </si>
   <si>
@@ -134,16 +144,22 @@
     <t>Social Security Administration</t>
   </si>
   <si>
+    <t>All Other Agencies</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Note:</t>
   </si>
   <si>
+    <t>Data is broken out for 24 CFO Act Agencies.  Non-CFO Act Agencies are grouped in the "All Other Agencies".</t>
+  </si>
+  <si>
     <t xml:space="preserve">This report contains only purchase card spend and transactions.  </t>
   </si>
   <si>
-    <t>The MPT was set at $3,500</t>
+    <t>The MPT was set at $10,000</t>
   </si>
   <si>
     <t>This is an individual (stand-alone) report and is not integrated with any other FPDS data or reports.</t>
@@ -155,62 +171,40 @@
     <t>Please contact GSA Center for Charge Card Management at gsa_smartpay@gsa.gov should you have any questions about the data contained in this report.</t>
   </si>
   <si>
-    <t>Data is broken out for 24 CFO Act Agencies.  Non-CFO Act Agencies are grouped in the "All Other Agencies".</t>
-  </si>
-  <si>
-    <t>GSA SmartPay® Purchase Card Statistics</t>
-  </si>
-  <si>
-    <t>The MPT was set at $10,000</t>
-  </si>
-  <si>
-    <t>VA Prime Vendor</t>
-  </si>
-  <si>
-    <t>VA Non-Prime Vendor</t>
+    <t>The MPT was set at $3,500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -223,13 +217,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0B64A0"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF0B64A0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
   </fills>
@@ -243,65 +237,45 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -317,20 +291,20 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -354,113 +328,19 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="0000FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,160 +352,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -636,1533 +487,1553 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EF3E57-7ADB-4AB6-994B-7204A10B37B0}">
-  <dimension ref="B1:L38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A2B18F-3417-4561-9B55-7C2457B5F035}">
+  <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.4609375" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="16.23046875" customWidth="1"/>
-    <col min="4" max="4" width="16.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.23046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.15234375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57" customWidth="1"/>
+    <col min="3" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3371555.56</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1005153.76</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3943</v>
+      </c>
+      <c r="F3" s="5">
+        <v>59</v>
+      </c>
+      <c r="G3" s="5">
+        <f>SUM(E3:F3)</f>
+        <v>4002</v>
+      </c>
+      <c r="H3" s="4">
+        <f>SUM(C3:D3)</f>
+        <v>4376709.32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
+        <v>391732692.43000001</v>
+      </c>
+      <c r="D4" s="4">
+        <v>31303474.66</v>
+      </c>
+      <c r="E4" s="5">
+        <v>734928</v>
+      </c>
+      <c r="F4" s="5">
+        <v>844</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G29" si="0">SUM(E4:F4)</f>
+        <v>735772</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H29" si="1">SUM(C4:D4)</f>
+        <v>423036167.09000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>99984230.790000007</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4014909.45</v>
+      </c>
+      <c r="E5" s="5">
+        <v>130505</v>
+      </c>
+      <c r="F5" s="5">
+        <v>139</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>130644</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="1"/>
+        <v>103999140.24000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3401544971.6100001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1006639284.39</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2917500</v>
+      </c>
+      <c r="F6" s="5">
+        <v>31566</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>2949066</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="1"/>
+        <v>4408184256</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4">
+        <v>334725788.32999998</v>
+      </c>
+      <c r="D7" s="4">
+        <v>72198840.290000007</v>
+      </c>
+      <c r="E7" s="5">
+        <v>307837</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2920</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>310757</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="1"/>
+        <v>406924628.62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2337273.87</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45531.7</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2843</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>2846</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>2382805.5700000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4">
+        <v>74174017.400000006</v>
+      </c>
+      <c r="D9" s="4">
+        <v>11923791.470000001</v>
+      </c>
+      <c r="E9" s="5">
+        <v>108758</v>
+      </c>
+      <c r="F9" s="5">
+        <v>729</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>109487</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>86097808.870000005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>536773580.60000002</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8949292.6600000001</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1023443</v>
+      </c>
+      <c r="F10" s="5">
+        <v>520</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>1023963</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>545722873.25999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4">
+        <v>588768058.58000004</v>
+      </c>
+      <c r="D11" s="4">
+        <v>34025629.520000003</v>
+      </c>
+      <c r="E11" s="5">
+        <v>665422</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1173</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>666595</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>622793688.10000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6782329.5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>781956.7</v>
+      </c>
+      <c r="E12" s="5">
+        <v>7396</v>
+      </c>
+      <c r="F12" s="5">
+        <v>51</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>7447</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>7564286.2000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4">
+        <v>566933464.34000003</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1174775.97</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1033773</v>
+      </c>
+      <c r="F13" s="5">
+        <v>49</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>1033822</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>568108240.31000006</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4">
+        <v>566586781.30999994</v>
+      </c>
+      <c r="D14" s="4">
+        <v>151005578.13999999</v>
+      </c>
+      <c r="E14" s="5">
+        <v>466992</v>
+      </c>
+      <c r="F14" s="5">
+        <v>8203</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>475195</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>717592359.44999993</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>16681184.5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>34013.699999999997</v>
+      </c>
+      <c r="E15" s="5">
+        <v>27404</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>27406</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>16715198.199999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4">
+        <v>133298213.19</v>
+      </c>
+      <c r="D16" s="4">
+        <v>28713129.760000002</v>
+      </c>
+      <c r="E16" s="5">
+        <v>187928</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1180</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="0"/>
+        <v>189108</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>162011342.94999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="4">
+        <v>218845174.28</v>
+      </c>
+      <c r="D17" s="4">
+        <v>48067257.289999999</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1129977</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1248</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="0"/>
+        <v>1131225</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>266912431.56999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4">
+        <v>51226653.030000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1600351.92</v>
+      </c>
+      <c r="E18" s="5">
+        <v>70570</v>
+      </c>
+      <c r="F18" s="5">
+        <v>76</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="0"/>
+        <v>70646</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>52827004.950000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1132541088.1800001</v>
+      </c>
+      <c r="D19" s="4">
+        <v>8547476348.71</v>
+      </c>
+      <c r="E19" s="5">
+        <v>677922</v>
+      </c>
+      <c r="F19" s="5">
+        <v>154627</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="0"/>
+        <v>832549</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>9680017436.8899994</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4155081757.2399998</v>
+      </c>
+      <c r="D20" s="4">
+        <v>779960116.23000002</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5651453</v>
+      </c>
+      <c r="F20" s="5">
+        <v>34524</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="0"/>
+        <v>5685977</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="1"/>
+        <v>4935041873.4699993</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4">
+        <v>28567598.16</v>
+      </c>
+      <c r="D21" s="4">
+        <v>341936.77</v>
+      </c>
+      <c r="E21" s="5">
+        <v>32500</v>
+      </c>
+      <c r="F21" s="5">
+        <v>14</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="0"/>
+        <v>32514</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
+        <v>28909534.93</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4">
+        <v>31349031.079999998</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1083409.6200000001</v>
+      </c>
+      <c r="E22" s="5">
+        <v>28340</v>
+      </c>
+      <c r="F22" s="5">
+        <v>58</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="0"/>
+        <v>28398</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="1"/>
+        <v>32432440.699999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4">
+        <v>78100394.829999998</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1146523.6499999999</v>
+      </c>
+      <c r="E23" s="5">
+        <v>58245</v>
+      </c>
+      <c r="F23" s="5">
+        <v>57</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="0"/>
+        <v>58302</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
+        <v>79246918.480000004</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="4">
+        <v>6106218.1500000004</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>6248</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="0"/>
+        <v>6248</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="1"/>
+        <v>6106218.1500000004</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1960245.5</v>
+      </c>
+      <c r="D25" s="4">
+        <v>40299</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2180</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="0"/>
+        <v>2182</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="1"/>
+        <v>2000544.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="4">
+        <v>5841764.7300000004</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1094374.44</v>
+      </c>
+      <c r="E26" s="5">
+        <v>6614</v>
+      </c>
+      <c r="F26" s="5">
+        <v>63</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="0"/>
+        <v>6677</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="1"/>
+        <v>6936139.1699999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3182787.38</v>
+      </c>
+      <c r="D27" s="4">
+        <v>55224.76</v>
+      </c>
+      <c r="E27" s="5">
+        <v>6315</v>
+      </c>
+      <c r="F27" s="5">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="0"/>
+        <v>6319</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="1"/>
+        <v>3238012.1399999997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="4">
+        <v>40640343.100000001</v>
+      </c>
+      <c r="D28" s="4">
+        <v>111084.24</v>
+      </c>
+      <c r="E28" s="5">
+        <v>84452</v>
+      </c>
+      <c r="F28" s="5">
+        <v>7</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="0"/>
+        <v>84459</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="1"/>
+        <v>40751427.340000004</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="4">
+        <v>816026231.50999999</v>
+      </c>
+      <c r="D29" s="4">
+        <v>57062036.259999998</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1721952</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2182</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="0"/>
+        <v>1724134</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="1"/>
+        <v>873088267.76999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="9">
+        <f>SUM(C3:C29)</f>
+        <v>13293163429.179996</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" ref="D30:H30" si="2">SUM(D3:D29)</f>
+        <v>10789854325.060001</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="2"/>
+        <v>17095440</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="2"/>
+        <v>240300</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="2"/>
+        <v>17335740</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="2"/>
+        <v>24083017754.239998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="62" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="18">
-        <v>2560993.89</v>
-      </c>
-      <c r="D3" s="18">
-        <v>795641.69</v>
-      </c>
-      <c r="E3" s="19">
-        <v>3160</v>
-      </c>
-      <c r="F3" s="19">
-        <v>49</v>
-      </c>
-      <c r="G3" s="20">
-        <v>3209</v>
-      </c>
-      <c r="H3" s="18">
-        <v>3356635.58</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="18">
-        <v>336085895.19999999</v>
-      </c>
-      <c r="D4" s="18">
-        <v>41560760.960000001</v>
-      </c>
-      <c r="E4" s="19">
-        <v>674860</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1043</v>
-      </c>
-      <c r="G4" s="20">
-        <v>675903</v>
-      </c>
-      <c r="H4" s="18">
-        <v>377646656.15999997</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="18">
-        <v>88934201.799999997</v>
-      </c>
-      <c r="D5" s="18">
-        <v>3424224.7</v>
-      </c>
-      <c r="E5" s="19">
-        <v>125645</v>
-      </c>
-      <c r="F5" s="19">
-        <v>121</v>
-      </c>
-      <c r="G5" s="20">
-        <v>125766</v>
-      </c>
-      <c r="H5" s="18">
-        <v>92358426.5</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="18">
-        <v>3220076471</v>
-      </c>
-      <c r="D6" s="18">
-        <v>985617774</v>
-      </c>
-      <c r="E6" s="19">
-        <v>2933521</v>
-      </c>
-      <c r="F6" s="19">
-        <v>31698</v>
-      </c>
-      <c r="G6" s="20">
-        <v>2965219</v>
-      </c>
-      <c r="H6" s="18">
-        <v>4205694245</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="18">
-        <v>297468477.10000002</v>
-      </c>
-      <c r="D7" s="18">
-        <v>63500295.310000002</v>
-      </c>
-      <c r="E7" s="19">
-        <v>290217</v>
-      </c>
-      <c r="F7" s="19">
-        <v>2736</v>
-      </c>
-      <c r="G7" s="20">
-        <v>292953</v>
-      </c>
-      <c r="H7" s="18">
-        <v>360968772.41000003</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="18">
-        <v>2939468.53</v>
-      </c>
-      <c r="D8" s="18">
-        <v>166504.43</v>
-      </c>
-      <c r="E8" s="19">
-        <v>3638</v>
-      </c>
-      <c r="F8" s="19">
-        <v>8</v>
-      </c>
-      <c r="G8" s="20">
-        <v>3646</v>
-      </c>
-      <c r="H8" s="18">
-        <v>3105972.96</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="18">
-        <v>63455020.060000002</v>
-      </c>
-      <c r="D9" s="18">
-        <v>8889566.3599999994</v>
-      </c>
-      <c r="E9" s="19">
-        <v>96512</v>
-      </c>
-      <c r="F9" s="19">
-        <v>559</v>
-      </c>
-      <c r="G9" s="20">
-        <v>97071</v>
-      </c>
-      <c r="H9" s="18">
-        <v>72344586.420000002</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="18">
-        <v>514157841.69999999</v>
-      </c>
-      <c r="D10" s="18">
-        <v>8926212.9299999997</v>
-      </c>
-      <c r="E10" s="19">
-        <v>1098221</v>
-      </c>
-      <c r="F10" s="19">
-        <v>538</v>
-      </c>
-      <c r="G10" s="20">
-        <v>1098759</v>
-      </c>
-      <c r="H10" s="18">
-        <v>523084054.63</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="18">
-        <v>488156515.60000002</v>
-      </c>
-      <c r="D11" s="18">
-        <v>18845974.09</v>
-      </c>
-      <c r="E11" s="19">
-        <v>582528</v>
-      </c>
-      <c r="F11" s="19">
-        <v>703</v>
-      </c>
-      <c r="G11" s="20">
-        <v>583231</v>
-      </c>
-      <c r="H11" s="18">
-        <v>507002489.69</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="18">
-        <v>4869921.91</v>
-      </c>
-      <c r="D12" s="18">
-        <v>45451.5</v>
-      </c>
-      <c r="E12" s="19">
-        <v>5952</v>
-      </c>
-      <c r="F12" s="19">
-        <v>4</v>
-      </c>
-      <c r="G12" s="20">
-        <v>5956</v>
-      </c>
-      <c r="H12" s="18">
-        <v>4915373.41</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="18">
-        <v>518087002.60000002</v>
-      </c>
-      <c r="D13" s="18">
-        <v>856188.16</v>
-      </c>
-      <c r="E13" s="19">
-        <v>977422</v>
-      </c>
-      <c r="F13" s="19">
-        <v>49</v>
-      </c>
-      <c r="G13" s="20">
-        <v>977471</v>
-      </c>
-      <c r="H13" s="18">
-        <v>518943190.76000005</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="18">
-        <v>517057418.69999999</v>
-      </c>
-      <c r="D14" s="18">
-        <v>139120952</v>
-      </c>
-      <c r="E14" s="19">
-        <v>427061</v>
-      </c>
-      <c r="F14" s="19">
-        <v>7759</v>
-      </c>
-      <c r="G14" s="20">
-        <v>434820</v>
-      </c>
-      <c r="H14" s="18">
-        <v>656178370.70000005</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="18">
-        <v>17949066.739999998</v>
-      </c>
-      <c r="D15" s="18">
-        <v>89028.55</v>
-      </c>
-      <c r="E15" s="19">
-        <v>28586</v>
-      </c>
-      <c r="F15" s="19">
-        <v>6</v>
-      </c>
-      <c r="G15" s="20">
-        <v>28592</v>
-      </c>
-      <c r="H15" s="18">
-        <v>18038095.289999999</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="18">
-        <v>120437821.5</v>
-      </c>
-      <c r="D16" s="18">
-        <v>23821886.420000002</v>
-      </c>
-      <c r="E16" s="19">
-        <v>176602</v>
-      </c>
-      <c r="F16" s="19">
-        <v>1053</v>
-      </c>
-      <c r="G16" s="20">
-        <v>177655</v>
-      </c>
-      <c r="H16" s="18">
-        <v>144259707.92000002</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="18">
-        <v>189262103.90000001</v>
-      </c>
-      <c r="D17" s="18">
-        <v>45821196.609999999</v>
-      </c>
-      <c r="E17" s="19">
-        <v>820284</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1207</v>
-      </c>
-      <c r="G17" s="20">
-        <v>821491</v>
-      </c>
-      <c r="H17" s="18">
-        <v>235083300.50999999</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="18">
-        <v>43311542.960000001</v>
-      </c>
-      <c r="D18" s="18">
-        <v>1201825.1499999999</v>
-      </c>
-      <c r="E18" s="19">
-        <v>71528</v>
-      </c>
-      <c r="F18" s="19">
-        <v>61</v>
-      </c>
-      <c r="G18" s="20">
-        <v>71589</v>
-      </c>
-      <c r="H18" s="18">
-        <v>44513368.109999999</v>
-      </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="21" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" s="22">
-        <v>996328342.5</v>
-      </c>
-      <c r="D19" s="22">
-        <v>7494178050</v>
-      </c>
-      <c r="E19" s="23">
-        <v>612926</v>
-      </c>
-      <c r="F19" s="23">
-        <v>114139</v>
-      </c>
-      <c r="G19" s="24">
-        <v>727065</v>
-      </c>
-      <c r="H19" s="22">
-        <v>8490506392.5</v>
-      </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="22">
-        <v>3985333124</v>
-      </c>
-      <c r="D20" s="22">
-        <v>717507620.79999995</v>
-      </c>
-      <c r="E20" s="23">
-        <v>5930668</v>
-      </c>
-      <c r="F20" s="23">
-        <v>61208</v>
-      </c>
-      <c r="G20" s="24">
-        <v>5991876</v>
-      </c>
-      <c r="H20" s="22">
-        <v>4702840744.8000002</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="18">
-        <v>24121848.440000001</v>
-      </c>
-      <c r="D21" s="18">
-        <v>343025.56</v>
-      </c>
-      <c r="E21" s="19">
-        <v>29337</v>
-      </c>
-      <c r="F21" s="19">
-        <v>13</v>
-      </c>
-      <c r="G21" s="20">
-        <v>29350</v>
-      </c>
-      <c r="H21" s="18">
-        <v>24464874</v>
-      </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="18">
-        <v>29862130.210000001</v>
-      </c>
-      <c r="D22" s="18">
-        <v>452508.26</v>
-      </c>
-      <c r="E22" s="19">
-        <v>29639</v>
-      </c>
-      <c r="F22" s="19">
-        <v>29</v>
-      </c>
-      <c r="G22" s="20">
-        <v>29668</v>
-      </c>
-      <c r="H22" s="18">
-        <v>30314638.470000003</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="18">
-        <v>65767622.789999999</v>
-      </c>
-      <c r="D23" s="18">
-        <v>3626209.31</v>
-      </c>
-      <c r="E23" s="19">
-        <v>48544</v>
-      </c>
-      <c r="F23" s="19">
-        <v>192</v>
-      </c>
-      <c r="G23" s="20">
-        <v>48736</v>
-      </c>
-      <c r="H23" s="18">
-        <v>69393832.099999994</v>
-      </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="18">
-        <v>4684663.9000000004</v>
-      </c>
-      <c r="D24" s="18">
-        <v>0</v>
-      </c>
-      <c r="E24" s="19">
-        <v>4264</v>
-      </c>
-      <c r="F24" s="19">
-        <v>0</v>
-      </c>
-      <c r="G24" s="20">
-        <v>4264</v>
-      </c>
-      <c r="H24" s="18">
-        <v>4684663.9000000004</v>
-      </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="18">
-        <v>1565463.98</v>
-      </c>
-      <c r="D25" s="18">
-        <v>0</v>
-      </c>
-      <c r="E25" s="19">
-        <v>1789</v>
-      </c>
-      <c r="F25" s="19">
-        <v>0</v>
-      </c>
-      <c r="G25" s="20">
-        <v>1789</v>
-      </c>
-      <c r="H25" s="18">
-        <v>1565463.98</v>
-      </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="18">
-        <v>4870516.0199999996</v>
-      </c>
-      <c r="D26" s="18">
-        <v>583360.65</v>
-      </c>
-      <c r="E26" s="19">
-        <v>6207</v>
-      </c>
-      <c r="F26" s="19">
-        <v>30</v>
-      </c>
-      <c r="G26" s="20">
-        <v>6237</v>
-      </c>
-      <c r="H26" s="18">
-        <v>5453876.6699999999</v>
-      </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="18">
-        <v>2741369.11</v>
-      </c>
-      <c r="D27" s="18">
-        <v>92459.82</v>
-      </c>
-      <c r="E27" s="19">
-        <v>5350</v>
-      </c>
-      <c r="F27" s="19">
-        <v>4</v>
-      </c>
-      <c r="G27" s="20">
-        <v>5354</v>
-      </c>
-      <c r="H27" s="18">
-        <v>2833828.9299999997</v>
-      </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="18">
-        <v>50198573.07</v>
-      </c>
-      <c r="D28" s="18">
-        <v>140916.14000000001</v>
-      </c>
-      <c r="E28" s="19">
-        <v>88017</v>
-      </c>
-      <c r="F28" s="19">
-        <v>9</v>
-      </c>
-      <c r="G28" s="20">
-        <v>88026</v>
-      </c>
-      <c r="H28" s="18">
-        <v>50339489.210000001</v>
-      </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="25">
-        <v>648406274.09000003</v>
-      </c>
-      <c r="D29" s="25">
-        <v>30907173.239999998</v>
-      </c>
-      <c r="E29" s="19">
-        <v>1538200</v>
-      </c>
-      <c r="F29" s="19">
-        <v>1385</v>
-      </c>
-      <c r="G29" s="20">
-        <v>1539585</v>
-      </c>
-      <c r="H29" s="18">
-        <v>679313447.33000004</v>
-      </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="10">
-        <f>SUM(C3:C29)</f>
-        <v>12238689691.299999</v>
-      </c>
-      <c r="D30" s="10">
-        <f>SUM(D3:D29)</f>
-        <v>9590514806.6399975</v>
-      </c>
-      <c r="E30" s="11">
-        <f t="shared" ref="E30:H30" si="0">SUM(E3:E29)</f>
-        <v>16610678</v>
-      </c>
-      <c r="F30" s="11">
-        <f t="shared" si="0"/>
-        <v>224603</v>
-      </c>
-      <c r="G30" s="11">
-        <f t="shared" si="0"/>
-        <v>16835281</v>
-      </c>
-      <c r="H30" s="11">
-        <f t="shared" si="0"/>
-        <v>21829204497.939999</v>
-      </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B32" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4223355-910F-4DD4-B498-B9A16589D757}">
-  <dimension ref="B1:I38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:L38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.4609375" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="16.23046875" customWidth="1"/>
-    <col min="4" max="4" width="16.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.23046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="26" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" ht="62" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4">
-        <v>2592972.39</v>
+        <v>2560993.89</v>
       </c>
       <c r="D3" s="4">
-        <v>1112709.5900000001</v>
+        <v>795641.69</v>
       </c>
       <c r="E3" s="5">
-        <v>2595</v>
+        <v>3160</v>
       </c>
       <c r="F3" s="5">
-        <v>66</v>
-      </c>
-      <c r="G3" s="6">
-        <v>2661</v>
+        <v>49</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3209</v>
       </c>
       <c r="H3" s="4">
-        <v>3705681.9800000004</v>
-      </c>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+        <v>3356635.58</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4">
-        <v>316336023.24000001</v>
+        <v>336085895.19999999</v>
       </c>
       <c r="D4" s="4">
-        <v>64484511.030000001</v>
+        <v>41560760.960000001</v>
       </c>
       <c r="E4" s="5">
-        <v>684228</v>
+        <v>674860</v>
       </c>
       <c r="F4" s="5">
-        <v>1683</v>
-      </c>
-      <c r="G4" s="6">
-        <v>685911</v>
+        <v>1043</v>
+      </c>
+      <c r="G4" s="5">
+        <v>675903</v>
       </c>
       <c r="H4" s="4">
-        <v>380820534.26999998</v>
-      </c>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+        <v>377646656.15999997</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>78958651.459999993</v>
+        <v>88934201.799999997</v>
       </c>
       <c r="D5" s="4">
-        <v>3528224.81</v>
+        <v>3424224.7</v>
       </c>
       <c r="E5" s="5">
-        <v>119107</v>
+        <v>125645</v>
       </c>
       <c r="F5" s="5">
-        <v>132</v>
-      </c>
-      <c r="G5" s="6">
-        <v>119239</v>
+        <v>121</v>
+      </c>
+      <c r="G5" s="5">
+        <v>125766</v>
       </c>
       <c r="H5" s="4">
-        <v>82486876.269999996</v>
-      </c>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+        <v>92358426.5</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4">
-        <v>3254880417.8400002</v>
+        <v>3220076471</v>
       </c>
       <c r="D6" s="4">
-        <v>1121700129.1700001</v>
+        <v>985617774</v>
       </c>
       <c r="E6" s="5">
-        <v>3116987</v>
+        <v>2933521</v>
       </c>
       <c r="F6" s="5">
-        <v>36750</v>
-      </c>
-      <c r="G6" s="6">
-        <v>3153737</v>
+        <v>31698</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2965219</v>
       </c>
       <c r="H6" s="4">
-        <v>4376580547.0100002</v>
-      </c>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+        <v>4205694245</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4">
-        <v>238254855.28</v>
+        <v>297468477.10000002</v>
       </c>
       <c r="D7" s="4">
-        <v>59516471.909999996</v>
+        <v>63500295.310000002</v>
       </c>
       <c r="E7" s="5">
-        <v>239725</v>
+        <v>290217</v>
       </c>
       <c r="F7" s="5">
-        <v>2489</v>
-      </c>
-      <c r="G7" s="6">
-        <v>242214</v>
+        <v>2736</v>
+      </c>
+      <c r="G7" s="5">
+        <v>292953</v>
       </c>
       <c r="H7" s="4">
-        <v>297771327.19</v>
-      </c>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+        <v>360968772.41000003</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="4">
-        <v>2850706.97</v>
+        <v>2939468.53</v>
       </c>
       <c r="D8" s="4">
-        <v>113352.95</v>
+        <v>166504.43</v>
       </c>
       <c r="E8" s="5">
-        <v>3620</v>
+        <v>3638</v>
       </c>
       <c r="F8" s="5">
-        <v>7</v>
-      </c>
-      <c r="G8" s="6">
-        <v>3627</v>
+        <v>8</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3646</v>
       </c>
       <c r="H8" s="4">
-        <v>2964059.9200000004</v>
-      </c>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+        <v>3105972.96</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4">
-        <v>58326723.57</v>
+        <v>63455020.060000002</v>
       </c>
       <c r="D9" s="4">
-        <v>8086507.9100000001</v>
+        <v>8889566.3599999994</v>
       </c>
       <c r="E9" s="5">
-        <v>94947</v>
+        <v>96512</v>
       </c>
       <c r="F9" s="5">
-        <v>503</v>
-      </c>
-      <c r="G9" s="6">
-        <v>95450</v>
+        <v>559</v>
+      </c>
+      <c r="G9" s="5">
+        <v>97071</v>
       </c>
       <c r="H9" s="4">
-        <v>66413231.480000004</v>
-      </c>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+        <v>72344586.420000002</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="4">
-        <v>507532784.79000002</v>
+        <v>514157841.69999999</v>
       </c>
       <c r="D10" s="4">
-        <v>12841179.939999999</v>
+        <v>8926212.9299999997</v>
       </c>
       <c r="E10" s="5">
-        <v>1198538</v>
+        <v>1098221</v>
       </c>
       <c r="F10" s="5">
-        <v>747</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1199285</v>
+        <v>538</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1098759</v>
       </c>
       <c r="H10" s="4">
-        <v>520373964.73000002</v>
-      </c>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+        <v>523084054.63</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="4">
-        <v>485217388.11000001</v>
+        <v>488156515.60000002</v>
       </c>
       <c r="D11" s="4">
-        <v>17492472.149999999</v>
+        <v>18845974.09</v>
       </c>
       <c r="E11" s="5">
-        <v>652377</v>
+        <v>582528</v>
       </c>
       <c r="F11" s="5">
-        <v>787</v>
-      </c>
-      <c r="G11" s="6">
-        <v>653164</v>
+        <v>703</v>
+      </c>
+      <c r="G11" s="5">
+        <v>583231</v>
       </c>
       <c r="H11" s="4">
-        <v>502709860.25999999</v>
-      </c>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+        <v>507002489.69</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="4">
-        <v>4487983.28</v>
+        <v>4869921.91</v>
       </c>
       <c r="D12" s="4">
-        <v>0</v>
+        <v>45451.5</v>
       </c>
       <c r="E12" s="5">
-        <v>5162</v>
+        <v>5952</v>
       </c>
       <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>5162</v>
+        <v>4</v>
+      </c>
+      <c r="G12" s="5">
+        <v>5956</v>
       </c>
       <c r="H12" s="4">
-        <v>4487983.28</v>
-      </c>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+        <v>4915373.41</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4">
-        <v>491269503.39999998</v>
+        <v>518087002.60000002</v>
       </c>
       <c r="D13" s="4">
-        <v>2796949.96</v>
+        <v>856188.16</v>
       </c>
       <c r="E13" s="5">
-        <v>976042</v>
+        <v>977422</v>
       </c>
       <c r="F13" s="5">
-        <v>121</v>
-      </c>
-      <c r="G13" s="6">
-        <v>976163</v>
+        <v>49</v>
+      </c>
+      <c r="G13" s="5">
+        <v>977471</v>
       </c>
       <c r="H13" s="4">
-        <v>494066453.35999995</v>
-      </c>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+        <v>518943190.76000005</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="4">
-        <v>516264443.55000001</v>
+        <v>517057418.69999999</v>
       </c>
       <c r="D14" s="4">
-        <v>107914869.93000001</v>
+        <v>139120952</v>
       </c>
       <c r="E14" s="5">
-        <v>467642</v>
+        <v>427061</v>
       </c>
       <c r="F14" s="5">
-        <v>6202</v>
-      </c>
-      <c r="G14" s="6">
-        <v>473844</v>
+        <v>7759</v>
+      </c>
+      <c r="G14" s="5">
+        <v>434820</v>
       </c>
       <c r="H14" s="4">
-        <v>624179313.48000002</v>
-      </c>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+        <v>656178370.70000005</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="4">
-        <v>15771041</v>
+        <v>17949066.739999998</v>
       </c>
       <c r="D15" s="4">
-        <v>292253.51</v>
+        <v>89028.55</v>
       </c>
       <c r="E15" s="5">
-        <v>27839</v>
+        <v>28586</v>
       </c>
       <c r="F15" s="5">
-        <v>14</v>
-      </c>
-      <c r="G15" s="6">
-        <v>27853</v>
+        <v>6</v>
+      </c>
+      <c r="G15" s="5">
+        <v>28592</v>
       </c>
       <c r="H15" s="4">
-        <v>16063294.51</v>
-      </c>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+        <v>18038095.289999999</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="4">
-        <v>109396302.14</v>
+        <v>120437821.5</v>
       </c>
       <c r="D16" s="4">
-        <v>22316955.23</v>
+        <v>23821886.420000002</v>
       </c>
       <c r="E16" s="5">
-        <v>160834</v>
+        <v>176602</v>
       </c>
       <c r="F16" s="5">
-        <v>962</v>
-      </c>
-      <c r="G16" s="6">
-        <v>161796</v>
+        <v>1053</v>
+      </c>
+      <c r="G16" s="5">
+        <v>177655</v>
       </c>
       <c r="H16" s="4">
-        <v>131713257.37</v>
-      </c>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+        <v>144259707.92000002</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="4">
-        <v>181699252.62</v>
+        <v>189262103.90000001</v>
       </c>
       <c r="D17" s="4">
-        <v>46314740.229999997</v>
+        <v>45821196.609999999</v>
       </c>
       <c r="E17" s="5">
-        <v>634584</v>
+        <v>820284</v>
       </c>
       <c r="F17" s="5">
-        <v>1196</v>
-      </c>
-      <c r="G17" s="6">
-        <v>635780</v>
+        <v>1207</v>
+      </c>
+      <c r="G17" s="5">
+        <v>821491</v>
       </c>
       <c r="H17" s="4">
-        <v>228013992.84999999</v>
-      </c>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+        <v>235083300.50999999</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="4">
-        <v>42272926.950000003</v>
+        <v>43311542.960000001</v>
       </c>
       <c r="D18" s="4">
-        <v>568737.74</v>
+        <v>1201825.1499999999</v>
       </c>
       <c r="E18" s="5">
-        <v>80712</v>
+        <v>71528</v>
       </c>
       <c r="F18" s="5">
+        <v>61</v>
+      </c>
+      <c r="G18" s="5">
+        <v>71589</v>
+      </c>
+      <c r="H18" s="4">
+        <v>44513368.109999999</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4">
+        <v>996328342.5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>7494178050</v>
+      </c>
+      <c r="E19" s="5">
+        <v>612926</v>
+      </c>
+      <c r="F19" s="5">
+        <v>114139</v>
+      </c>
+      <c r="G19" s="5">
+        <v>727065</v>
+      </c>
+      <c r="H19" s="4">
+        <v>8490506392.5</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4">
+        <v>3985333124</v>
+      </c>
+      <c r="D20" s="4">
+        <v>717507620.79999995</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5930668</v>
+      </c>
+      <c r="F20" s="5">
+        <v>61208</v>
+      </c>
+      <c r="G20" s="5">
+        <v>5991876</v>
+      </c>
+      <c r="H20" s="4">
+        <v>4702840744.8000002</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4">
+        <v>24121848.440000001</v>
+      </c>
+      <c r="D21" s="4">
+        <v>343025.56</v>
+      </c>
+      <c r="E21" s="5">
+        <v>29337</v>
+      </c>
+      <c r="F21" s="5">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5">
+        <v>29350</v>
+      </c>
+      <c r="H21" s="4">
+        <v>24464874</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4">
+        <v>29862130.210000001</v>
+      </c>
+      <c r="D22" s="4">
+        <v>452508.26</v>
+      </c>
+      <c r="E22" s="5">
+        <v>29639</v>
+      </c>
+      <c r="F22" s="5">
+        <v>29</v>
+      </c>
+      <c r="G22" s="5">
+        <v>29668</v>
+      </c>
+      <c r="H22" s="4">
+        <v>30314638.470000003</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4">
+        <v>65767622.789999999</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3626209.31</v>
+      </c>
+      <c r="E23" s="5">
+        <v>48544</v>
+      </c>
+      <c r="F23" s="5">
+        <v>192</v>
+      </c>
+      <c r="G23" s="5">
+        <v>48736</v>
+      </c>
+      <c r="H23" s="4">
+        <v>69393832.099999994</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4684663.9000000004</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4264</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>4264</v>
+      </c>
+      <c r="H24" s="4">
+        <v>4684663.9000000004</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1565463.98</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1789</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1789</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1565463.98</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4870516.0199999996</v>
+      </c>
+      <c r="D26" s="4">
+        <v>583360.65</v>
+      </c>
+      <c r="E26" s="5">
+        <v>6207</v>
+      </c>
+      <c r="F26" s="5">
+        <v>30</v>
+      </c>
+      <c r="G26" s="5">
+        <v>6237</v>
+      </c>
+      <c r="H26" s="4">
+        <v>5453876.6699999999</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2741369.11</v>
+      </c>
+      <c r="D27" s="4">
+        <v>92459.82</v>
+      </c>
+      <c r="E27" s="5">
+        <v>5350</v>
+      </c>
+      <c r="F27" s="5">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5">
+        <v>5354</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2833828.9299999997</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="6">
-        <v>80745</v>
-      </c>
-      <c r="H18" s="4">
-        <v>42841664.690000005</v>
-      </c>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="4">
-        <v>954880727.64999998</v>
-      </c>
-      <c r="D19" s="4">
-        <v>6745090336.4099998</v>
-      </c>
-      <c r="E19" s="5">
-        <v>590001</v>
-      </c>
-      <c r="F19" s="5">
-        <v>132826</v>
-      </c>
-      <c r="G19" s="6">
-        <v>722827</v>
-      </c>
-      <c r="H19" s="4">
-        <v>7699971064.0599995</v>
-      </c>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="4">
-        <v>3954362861.4599996</v>
-      </c>
-      <c r="D20" s="4">
-        <v>840228561.43000031</v>
-      </c>
-      <c r="E20" s="5">
-        <v>6333766</v>
-      </c>
-      <c r="F20" s="5">
-        <v>37019</v>
-      </c>
-      <c r="G20" s="6">
-        <v>6370785</v>
-      </c>
-      <c r="H20" s="4">
-        <v>4794591422.8899994</v>
-      </c>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="4">
-        <v>24202101.690000001</v>
-      </c>
-      <c r="D21" s="4">
-        <v>544764.04</v>
-      </c>
-      <c r="E21" s="5">
-        <v>29328</v>
-      </c>
-      <c r="F21" s="5">
-        <v>17</v>
-      </c>
-      <c r="G21" s="6">
-        <v>29345</v>
-      </c>
-      <c r="H21" s="4">
-        <v>24746865.73</v>
-      </c>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="4">
-        <v>30072084.309999999</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1120692.07</v>
-      </c>
-      <c r="E22" s="5">
-        <v>27993</v>
-      </c>
-      <c r="F22" s="5">
-        <v>69</v>
-      </c>
-      <c r="G22" s="6">
-        <v>28062</v>
-      </c>
-      <c r="H22" s="4">
-        <v>31192776.379999999</v>
-      </c>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="4">
-        <v>46790156.68</v>
-      </c>
-      <c r="D23" s="4">
-        <v>4231874.53</v>
-      </c>
-      <c r="E23" s="5">
-        <v>32302</v>
-      </c>
-      <c r="F23" s="5">
-        <v>188</v>
-      </c>
-      <c r="G23" s="6">
-        <v>32490</v>
-      </c>
-      <c r="H23" s="4">
-        <v>51022031.210000001</v>
-      </c>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="4">
-        <v>4202063.3899999997</v>
-      </c>
-      <c r="D24" s="4">
-        <v>21431</v>
-      </c>
-      <c r="E24" s="5">
-        <v>3842</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6">
-        <v>3843</v>
-      </c>
-      <c r="H24" s="4">
-        <v>4223494.3899999997</v>
-      </c>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1201077.78</v>
-      </c>
-      <c r="D25" s="4">
-        <v>17280</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1385</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1386</v>
-      </c>
-      <c r="H25" s="4">
-        <v>1218357.78</v>
-      </c>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="4">
-        <v>4794916.78</v>
-      </c>
-      <c r="D26" s="4">
-        <v>642137.1</v>
-      </c>
-      <c r="E26" s="5">
-        <v>6324</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="C28" s="4">
+        <v>50198573.07</v>
+      </c>
+      <c r="D28" s="4">
+        <v>140916.14000000001</v>
+      </c>
+      <c r="E28" s="5">
+        <v>88017</v>
+      </c>
+      <c r="F28" s="5">
+        <v>9</v>
+      </c>
+      <c r="G28" s="5">
+        <v>88026</v>
+      </c>
+      <c r="H28" s="4">
+        <v>50339489.210000001</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="6">
-        <v>6358</v>
-      </c>
-      <c r="H26" s="4">
-        <v>5437053.8799999999</v>
-      </c>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="4">
-        <v>2536588.4700000002</v>
-      </c>
-      <c r="D27" s="4">
-        <v>14715</v>
-      </c>
-      <c r="E27" s="5">
-        <v>4925</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
-        <v>4926</v>
-      </c>
-      <c r="H27" s="4">
-        <v>2551303.4700000002</v>
-      </c>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="4">
-        <v>49429233.32</v>
-      </c>
-      <c r="D28" s="4">
-        <v>21498.99</v>
-      </c>
-      <c r="E28" s="5">
-        <v>80228</v>
-      </c>
-      <c r="F28" s="5">
-        <v>2</v>
-      </c>
-      <c r="G28" s="6">
-        <v>80230</v>
-      </c>
-      <c r="H28" s="4">
-        <v>49450732.310000002</v>
-      </c>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="7">
+      <c r="C29" s="4">
         <v>648406274.09000003</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="4">
         <v>30907173.239999998</v>
       </c>
       <c r="E29" s="5">
@@ -2171,905 +2042,1679 @@
       <c r="F29" s="5">
         <v>1385</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>1539585</v>
       </c>
       <c r="H29" s="4">
         <v>679313447.33000004</v>
       </c>
-      <c r="I29" s="17"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="10">
-        <f>SUM(C3:C29)</f>
-        <v>12026990062.209999</v>
-      </c>
-      <c r="D30" s="10">
-        <f>SUM(D3:D29)</f>
-        <v>9091920529.8700027</v>
-      </c>
-      <c r="E30" s="11">
-        <f t="shared" ref="E30:H30" si="0">SUM(E3:E29)</f>
-        <v>17113233</v>
-      </c>
-      <c r="F30" s="11">
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" ref="C30:H30" si="0">SUM(C3:C29)</f>
+        <v>12238689691.299999</v>
+      </c>
+      <c r="D30" s="9">
         <f t="shared" si="0"/>
-        <v>223235</v>
-      </c>
-      <c r="G30" s="11">
+        <v>9590514806.6399975</v>
+      </c>
+      <c r="E30" s="10">
         <f t="shared" si="0"/>
-        <v>17336468</v>
-      </c>
-      <c r="H30" s="11">
+        <v>16610678</v>
+      </c>
+      <c r="F30" s="10">
         <f t="shared" si="0"/>
-        <v>21118910592.080002</v>
-      </c>
-      <c r="I30" s="17"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="12" t="s">
+        <v>224603</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="0"/>
+        <v>16835281</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="0"/>
+        <v>21829204497.939999</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="12" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="12" t="s">
-        <v>38</v>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5221202-E935-4115-98D3-EE3A493C99D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.4609375" customWidth="1"/>
-    <col min="2" max="2" width="39.4609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.23046875" customWidth="1"/>
-    <col min="4" max="4" width="16.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.23046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="26" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" ht="62" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4">
-        <v>3033939.77</v>
+        <v>2592972.39</v>
       </c>
       <c r="D3" s="4">
-        <v>2622374.38</v>
+        <v>1112709.5900000001</v>
       </c>
       <c r="E3" s="5">
-        <v>4011</v>
+        <v>2595</v>
       </c>
       <c r="F3" s="5">
-        <v>111</v>
-      </c>
-      <c r="G3" s="6">
-        <v>4122</v>
+        <v>66</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2661</v>
       </c>
       <c r="H3" s="4">
-        <v>5656314.1500000004</v>
-      </c>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+        <v>3705681.9800000004</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4">
-        <v>310422913.69999999</v>
+        <v>316336023.24000001</v>
       </c>
       <c r="D4" s="4">
-        <v>39970534.039999999</v>
+        <v>64484511.030000001</v>
       </c>
       <c r="E4" s="5">
-        <v>744383</v>
+        <v>684228</v>
       </c>
       <c r="F4" s="5">
-        <v>1281</v>
-      </c>
-      <c r="G4" s="6">
-        <v>745664</v>
+        <v>1683</v>
+      </c>
+      <c r="G4" s="5">
+        <v>685911</v>
       </c>
       <c r="H4" s="4">
-        <v>350393447.74000001</v>
-      </c>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+        <v>380820534.26999998</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>78764463.590000004</v>
+        <v>78958651.459999993</v>
       </c>
       <c r="D5" s="4">
-        <v>5056307.37</v>
+        <v>3528224.81</v>
       </c>
       <c r="E5" s="5">
-        <v>136842</v>
+        <v>119107</v>
       </c>
       <c r="F5" s="5">
-        <v>191</v>
-      </c>
-      <c r="G5" s="6">
-        <v>137033</v>
+        <v>132</v>
+      </c>
+      <c r="G5" s="5">
+        <v>119239</v>
       </c>
       <c r="H5" s="4">
-        <v>83820770.959999993</v>
-      </c>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+        <v>82486876.269999996</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4">
-        <v>3352486152.5799999</v>
+        <v>3254880417.8400002</v>
       </c>
       <c r="D6" s="4">
-        <v>1259924928.54</v>
+        <v>1121700129.1700001</v>
       </c>
       <c r="E6" s="5">
-        <v>3362747</v>
+        <v>3116987</v>
       </c>
       <c r="F6" s="5">
-        <v>40876</v>
-      </c>
-      <c r="G6" s="6">
-        <v>3403623</v>
+        <v>36750</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3153737</v>
       </c>
       <c r="H6" s="4">
-        <v>4612411081.1199999</v>
-      </c>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+        <v>4376580547.0100002</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4">
-        <v>197079038.25999999</v>
+        <v>238254855.28</v>
       </c>
       <c r="D7" s="4">
-        <v>62400942.920000002</v>
+        <v>59516471.909999996</v>
       </c>
       <c r="E7" s="5">
-        <v>207664</v>
+        <v>239725</v>
       </c>
       <c r="F7" s="5">
-        <v>2560</v>
-      </c>
-      <c r="G7" s="6">
-        <v>210224</v>
+        <v>2489</v>
+      </c>
+      <c r="G7" s="5">
+        <v>242214</v>
       </c>
       <c r="H7" s="4">
-        <v>259479981.18000001</v>
-      </c>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+        <v>297771327.19</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="4">
-        <v>2675451.6800000002</v>
+        <v>2850706.97</v>
       </c>
       <c r="D8" s="4">
-        <v>212579.59</v>
+        <v>113352.95</v>
       </c>
       <c r="E8" s="5">
-        <v>4375</v>
+        <v>3620</v>
       </c>
       <c r="F8" s="5">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6">
-        <v>4388</v>
+        <v>7</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3627</v>
       </c>
       <c r="H8" s="4">
-        <v>2888031.27</v>
-      </c>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+        <v>2964059.9200000004</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4">
-        <v>61507281.140000001</v>
+        <v>58326723.57</v>
       </c>
       <c r="D9" s="4">
-        <v>8311498.0700000003</v>
+        <v>8086507.9100000001</v>
       </c>
       <c r="E9" s="5">
-        <v>99408</v>
+        <v>94947</v>
       </c>
       <c r="F9" s="5">
-        <v>488</v>
-      </c>
-      <c r="G9" s="6">
-        <v>99896</v>
+        <v>503</v>
+      </c>
+      <c r="G9" s="5">
+        <v>95450</v>
       </c>
       <c r="H9" s="4">
-        <v>69818779.209999993</v>
-      </c>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+        <v>66413231.480000004</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="4">
-        <v>518318603.62</v>
+        <v>507532784.79000002</v>
       </c>
       <c r="D10" s="4">
-        <v>22278351.239999998</v>
+        <v>12841179.939999999</v>
       </c>
       <c r="E10" s="5">
-        <v>1379229</v>
+        <v>1198538</v>
       </c>
       <c r="F10" s="5">
-        <v>1111</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1380340</v>
+        <v>747</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1199285</v>
       </c>
       <c r="H10" s="4">
-        <v>540596954.86000001</v>
-      </c>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+        <v>520373964.73000002</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="4">
-        <v>486570604.61000001</v>
+        <v>485217388.11000001</v>
       </c>
       <c r="D11" s="4">
-        <v>40556817.43</v>
+        <v>17492472.149999999</v>
       </c>
       <c r="E11" s="5">
-        <v>687826</v>
+        <v>652377</v>
       </c>
       <c r="F11" s="5">
-        <v>1270</v>
-      </c>
-      <c r="G11" s="6">
-        <v>689096</v>
+        <v>787</v>
+      </c>
+      <c r="G11" s="5">
+        <v>653164</v>
       </c>
       <c r="H11" s="4">
-        <v>527127422.04000002</v>
-      </c>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+        <v>502709860.25999999</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="4">
-        <v>4740609.67</v>
+        <v>4487983.28</v>
       </c>
       <c r="D12" s="4">
-        <v>84894.75</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5">
-        <v>7285</v>
+        <v>5162</v>
       </c>
       <c r="F12" s="5">
-        <v>5</v>
-      </c>
-      <c r="G12" s="6">
-        <v>7290</v>
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>5162</v>
       </c>
       <c r="H12" s="4">
-        <v>4825504.42</v>
-      </c>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+        <v>4487983.28</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4">
-        <v>492542723.20999998</v>
+        <v>491269503.39999998</v>
       </c>
       <c r="D13" s="4">
-        <v>5788922.4299999997</v>
+        <v>2796949.96</v>
       </c>
       <c r="E13" s="5">
-        <v>1003695</v>
+        <v>976042</v>
       </c>
       <c r="F13" s="5">
-        <v>282</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1003977</v>
+        <v>121</v>
+      </c>
+      <c r="G13" s="5">
+        <v>976163</v>
       </c>
       <c r="H13" s="4">
-        <v>498331645.63999999</v>
-      </c>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+        <v>494066453.35999995</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="4">
-        <v>556226302.54999995</v>
+        <v>516264443.55000001</v>
       </c>
       <c r="D14" s="4">
-        <v>122440010.65000001</v>
+        <v>107914869.93000001</v>
       </c>
       <c r="E14" s="5">
-        <v>496099</v>
+        <v>467642</v>
       </c>
       <c r="F14" s="5">
-        <v>6513</v>
-      </c>
-      <c r="G14" s="6">
-        <v>502612</v>
+        <v>6202</v>
+      </c>
+      <c r="G14" s="5">
+        <v>473844</v>
       </c>
       <c r="H14" s="4">
-        <v>678666313.20000005</v>
-      </c>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+        <v>624179313.48000002</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="4">
-        <v>17999610.489999998</v>
+        <v>15771041</v>
       </c>
       <c r="D15" s="4">
-        <v>740099.16</v>
+        <v>292253.51</v>
       </c>
       <c r="E15" s="5">
-        <v>34437</v>
+        <v>27839</v>
       </c>
       <c r="F15" s="5">
-        <v>27</v>
-      </c>
-      <c r="G15" s="6">
-        <v>34464</v>
+        <v>14</v>
+      </c>
+      <c r="G15" s="5">
+        <v>27853</v>
       </c>
       <c r="H15" s="4">
-        <v>18739709.649999999</v>
-      </c>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+        <v>16063294.51</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="4">
-        <v>109628174.64</v>
+        <v>109396302.14</v>
       </c>
       <c r="D16" s="4">
-        <v>17819061.960000001</v>
+        <v>22316955.23</v>
       </c>
       <c r="E16" s="5">
-        <v>166647</v>
+        <v>160834</v>
       </c>
       <c r="F16" s="5">
-        <v>880</v>
-      </c>
-      <c r="G16" s="6">
-        <v>167527</v>
+        <v>962</v>
+      </c>
+      <c r="G16" s="5">
+        <v>161796</v>
       </c>
       <c r="H16" s="4">
-        <v>127447236.59999999</v>
-      </c>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+        <v>131713257.37</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="4">
-        <v>221461209.96000001</v>
+        <v>181699252.62</v>
       </c>
       <c r="D17" s="4">
-        <v>53742337.810000002</v>
+        <v>46314740.229999997</v>
       </c>
       <c r="E17" s="5">
-        <v>1046393</v>
+        <v>634584</v>
       </c>
       <c r="F17" s="5">
-        <v>1255</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1047648</v>
+        <v>1196</v>
+      </c>
+      <c r="G17" s="5">
+        <v>635780</v>
       </c>
       <c r="H17" s="4">
-        <v>275203547.76999998</v>
-      </c>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+        <v>228013992.84999999</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="4">
-        <v>45637900.280000001</v>
+        <v>42272926.950000003</v>
       </c>
       <c r="D18" s="4">
-        <v>2421769.63</v>
+        <v>568737.74</v>
       </c>
       <c r="E18" s="5">
-        <v>81626</v>
+        <v>80712</v>
       </c>
       <c r="F18" s="5">
-        <v>143</v>
-      </c>
-      <c r="G18" s="6">
-        <v>81769</v>
+        <v>33</v>
+      </c>
+      <c r="G18" s="5">
+        <v>80745</v>
       </c>
       <c r="H18" s="4">
-        <v>48059669.909999996</v>
-      </c>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>42841664.690000005</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="4">
-        <v>877874527.28999996</v>
+        <v>954880727.64999998</v>
       </c>
       <c r="D19" s="4">
-        <v>6433409265.8299999</v>
+        <v>6745090336.4099998</v>
       </c>
       <c r="E19" s="5">
-        <v>546195</v>
+        <v>590001</v>
       </c>
       <c r="F19" s="5">
-        <v>126277</v>
-      </c>
-      <c r="G19" s="6">
-        <v>672472</v>
+        <v>132826</v>
+      </c>
+      <c r="G19" s="5">
+        <v>722827</v>
       </c>
       <c r="H19" s="4">
-        <v>7311283793.1199999</v>
-      </c>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>7699971064.0599995</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="4">
-        <v>3487262073.9099998</v>
+        <v>3954362861.4599996</v>
       </c>
       <c r="D20" s="4">
-        <v>813423623.90999997</v>
+        <v>840228561.43000031</v>
       </c>
       <c r="E20" s="5">
-        <v>5658436</v>
+        <v>6333766</v>
       </c>
       <c r="F20" s="5">
-        <v>35087</v>
-      </c>
-      <c r="G20" s="6">
-        <v>5693523</v>
+        <v>37019</v>
+      </c>
+      <c r="G20" s="5">
+        <v>6370785</v>
       </c>
       <c r="H20" s="4">
-        <v>4300685697.8199997</v>
-      </c>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+        <v>4794591422.8899994</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4">
-        <v>24161033.18</v>
+        <v>24202101.690000001</v>
       </c>
       <c r="D21" s="4">
-        <v>1240245.6599999999</v>
+        <v>544764.04</v>
       </c>
       <c r="E21" s="5">
-        <v>32603</v>
+        <v>29328</v>
       </c>
       <c r="F21" s="5">
-        <v>49</v>
-      </c>
-      <c r="G21" s="6">
-        <v>32652</v>
+        <v>17</v>
+      </c>
+      <c r="G21" s="5">
+        <v>29345</v>
       </c>
       <c r="H21" s="4">
-        <v>25401278.84</v>
-      </c>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+        <v>24746865.73</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4">
-        <v>30296393.460000001</v>
+        <v>30072084.309999999</v>
       </c>
       <c r="D22" s="4">
-        <v>1090003.75</v>
+        <v>1120692.07</v>
       </c>
       <c r="E22" s="5">
-        <v>29892</v>
+        <v>27993</v>
       </c>
       <c r="F22" s="5">
-        <v>66</v>
-      </c>
-      <c r="G22" s="6">
-        <v>29958</v>
+        <v>69</v>
+      </c>
+      <c r="G22" s="5">
+        <v>28062</v>
       </c>
       <c r="H22" s="4">
-        <v>31386397.210000001</v>
-      </c>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+        <v>31192776.379999999</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4">
-        <v>78807628.590000004</v>
+        <v>46790156.68</v>
       </c>
       <c r="D23" s="4">
-        <v>3918027.22</v>
+        <v>4231874.53</v>
       </c>
       <c r="E23" s="5">
-        <v>68325</v>
+        <v>32302</v>
       </c>
       <c r="F23" s="5">
-        <v>199</v>
-      </c>
-      <c r="G23" s="6">
-        <v>68524</v>
+        <v>188</v>
+      </c>
+      <c r="G23" s="5">
+        <v>32490</v>
       </c>
       <c r="H23" s="4">
-        <v>82725655.810000002</v>
-      </c>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+        <v>51022031.210000001</v>
+      </c>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4">
-        <v>5246187.91</v>
+        <v>4202063.3899999997</v>
       </c>
       <c r="D24" s="4">
-        <v>13377</v>
+        <v>21431</v>
       </c>
       <c r="E24" s="5">
-        <v>6354</v>
+        <v>3842</v>
       </c>
       <c r="F24" s="5">
         <v>1</v>
       </c>
-      <c r="G24" s="6">
-        <v>6355</v>
+      <c r="G24" s="5">
+        <v>3843</v>
       </c>
       <c r="H24" s="4">
-        <v>5259564.91</v>
-      </c>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+        <v>4223494.3899999997</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4">
-        <v>1689080.07</v>
+        <v>1201077.78</v>
       </c>
       <c r="D25" s="4">
-        <v>224630.3</v>
+        <v>17280</v>
       </c>
       <c r="E25" s="5">
-        <v>2055</v>
+        <v>1385</v>
       </c>
       <c r="F25" s="5">
-        <v>13</v>
-      </c>
-      <c r="G25" s="6">
-        <v>2068</v>
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1386</v>
       </c>
       <c r="H25" s="4">
-        <v>1913710.37</v>
-      </c>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+        <v>1218357.78</v>
+      </c>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" s="4">
-        <v>6146788.3899999997</v>
+        <v>4794916.78</v>
       </c>
       <c r="D26" s="4">
-        <v>636419.97</v>
+        <v>642137.1</v>
       </c>
       <c r="E26" s="5">
-        <v>8343</v>
+        <v>6324</v>
       </c>
       <c r="F26" s="5">
+        <v>34</v>
+      </c>
+      <c r="G26" s="5">
+        <v>6358</v>
+      </c>
+      <c r="H26" s="4">
+        <v>5437053.8799999999</v>
+      </c>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2536588.4700000002</v>
+      </c>
+      <c r="D27" s="4">
+        <v>14715</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4925</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>4926</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2551303.4700000002</v>
+      </c>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="4">
+        <v>49429233.32</v>
+      </c>
+      <c r="D28" s="4">
+        <v>21498.99</v>
+      </c>
+      <c r="E28" s="5">
+        <v>80228</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2</v>
+      </c>
+      <c r="G28" s="5">
+        <v>80230</v>
+      </c>
+      <c r="H28" s="4">
+        <v>49450732.310000002</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="4">
+        <v>648406274.09000003</v>
+      </c>
+      <c r="D29" s="4">
+        <v>30907173.239999998</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1538200</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1385</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1539585</v>
+      </c>
+      <c r="H29" s="4">
+        <v>679313447.33000004</v>
+      </c>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="6">
-        <v>8378</v>
-      </c>
-      <c r="H26" s="4">
-        <v>6783208.3600000003</v>
-      </c>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="4">
-        <v>3468294.5</v>
-      </c>
-      <c r="D27" s="4">
-        <v>84822.21</v>
-      </c>
-      <c r="E27" s="5">
-        <v>8494</v>
-      </c>
-      <c r="F27" s="5">
-        <v>6</v>
-      </c>
-      <c r="G27" s="6">
-        <v>8500</v>
-      </c>
-      <c r="H27" s="4">
-        <v>3553116.71</v>
-      </c>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="4">
-        <v>57897735.149999999</v>
-      </c>
-      <c r="D28" s="4">
-        <v>49863.87</v>
-      </c>
-      <c r="E28" s="5">
-        <v>102632</v>
-      </c>
-      <c r="F28" s="5">
-        <v>3</v>
-      </c>
-      <c r="G28" s="6">
-        <v>102635</v>
-      </c>
-      <c r="H28" s="4">
-        <v>57947599.020000003</v>
-      </c>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="7">
-        <v>610898820.84000003</v>
-      </c>
-      <c r="D29" s="7">
-        <v>37402609.710000001</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1445375</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1627</v>
-      </c>
-      <c r="G29" s="6">
-        <v>1447002</v>
-      </c>
-      <c r="H29" s="4">
-        <v>648301430.54999995</v>
-      </c>
-      <c r="I29" s="17"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="10">
-        <f>SUM(C3:C29)</f>
-        <v>11642843543.039997</v>
-      </c>
-      <c r="D30" s="10">
-        <f>SUM(D3:D29)</f>
-        <v>8935864319.3999977</v>
-      </c>
-      <c r="E30" s="11">
-        <f t="shared" ref="E30:H30" si="0">SUM(E3:E29)</f>
-        <v>17371371</v>
-      </c>
-      <c r="F30" s="11">
+      <c r="C30" s="9">
+        <f t="shared" ref="C30:H30" si="0">SUM(C3:C29)</f>
+        <v>12026990062.209999</v>
+      </c>
+      <c r="D30" s="9">
         <f t="shared" si="0"/>
-        <v>220369</v>
-      </c>
-      <c r="G30" s="11">
+        <v>9091920529.8700027</v>
+      </c>
+      <c r="E30" s="10">
         <f t="shared" si="0"/>
-        <v>17591740</v>
-      </c>
-      <c r="H30" s="11">
+        <v>17113233</v>
+      </c>
+      <c r="F30" s="10">
         <f t="shared" si="0"/>
-        <v>20578707862.439999</v>
-      </c>
-      <c r="I30" s="17"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="12" t="s">
+        <v>223235</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="0"/>
+        <v>17336468</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="0"/>
+        <v>21118910592.080002</v>
+      </c>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="12" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="12" t="s">
-        <v>38</v>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:I38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="26" width="8.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3033939.77</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2622374.38</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4011</v>
+      </c>
+      <c r="F3" s="5">
+        <v>111</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4122</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5656314.1500000004</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
+        <v>310422913.69999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>39970534.039999999</v>
+      </c>
+      <c r="E4" s="5">
+        <v>744383</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1281</v>
+      </c>
+      <c r="G4" s="5">
+        <v>745664</v>
+      </c>
+      <c r="H4" s="4">
+        <v>350393447.74000001</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>78764463.590000004</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5056307.37</v>
+      </c>
+      <c r="E5" s="5">
+        <v>136842</v>
+      </c>
+      <c r="F5" s="5">
+        <v>191</v>
+      </c>
+      <c r="G5" s="5">
+        <v>137033</v>
+      </c>
+      <c r="H5" s="4">
+        <v>83820770.959999993</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3352486152.5799999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1259924928.54</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3362747</v>
+      </c>
+      <c r="F6" s="5">
+        <v>40876</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3403623</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4612411081.1199999</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4">
+        <v>197079038.25999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>62400942.920000002</v>
+      </c>
+      <c r="E7" s="5">
+        <v>207664</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2560</v>
+      </c>
+      <c r="G7" s="5">
+        <v>210224</v>
+      </c>
+      <c r="H7" s="4">
+        <v>259479981.18000001</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2675451.6800000002</v>
+      </c>
+      <c r="D8" s="4">
+        <v>212579.59</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4375</v>
+      </c>
+      <c r="F8" s="5">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4388</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2888031.27</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4">
+        <v>61507281.140000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8311498.0700000003</v>
+      </c>
+      <c r="E9" s="5">
+        <v>99408</v>
+      </c>
+      <c r="F9" s="5">
+        <v>488</v>
+      </c>
+      <c r="G9" s="5">
+        <v>99896</v>
+      </c>
+      <c r="H9" s="4">
+        <v>69818779.209999993</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>518318603.62</v>
+      </c>
+      <c r="D10" s="4">
+        <v>22278351.239999998</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1379229</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1111</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1380340</v>
+      </c>
+      <c r="H10" s="4">
+        <v>540596954.86000001</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4">
+        <v>486570604.61000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>40556817.43</v>
+      </c>
+      <c r="E11" s="5">
+        <v>687826</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1270</v>
+      </c>
+      <c r="G11" s="5">
+        <v>689096</v>
+      </c>
+      <c r="H11" s="4">
+        <v>527127422.04000002</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4740609.67</v>
+      </c>
+      <c r="D12" s="4">
+        <v>84894.75</v>
+      </c>
+      <c r="E12" s="5">
+        <v>7285</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5">
+        <v>7290</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4825504.42</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4">
+        <v>492542723.20999998</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5788922.4299999997</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1003695</v>
+      </c>
+      <c r="F13" s="5">
+        <v>282</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1003977</v>
+      </c>
+      <c r="H13" s="4">
+        <v>498331645.63999999</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4">
+        <v>556226302.54999995</v>
+      </c>
+      <c r="D14" s="4">
+        <v>122440010.65000001</v>
+      </c>
+      <c r="E14" s="5">
+        <v>496099</v>
+      </c>
+      <c r="F14" s="5">
+        <v>6513</v>
+      </c>
+      <c r="G14" s="5">
+        <v>502612</v>
+      </c>
+      <c r="H14" s="4">
+        <v>678666313.20000005</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>17999610.489999998</v>
+      </c>
+      <c r="D15" s="4">
+        <v>740099.16</v>
+      </c>
+      <c r="E15" s="5">
+        <v>34437</v>
+      </c>
+      <c r="F15" s="5">
+        <v>27</v>
+      </c>
+      <c r="G15" s="5">
+        <v>34464</v>
+      </c>
+      <c r="H15" s="4">
+        <v>18739709.649999999</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4">
+        <v>109628174.64</v>
+      </c>
+      <c r="D16" s="4">
+        <v>17819061.960000001</v>
+      </c>
+      <c r="E16" s="5">
+        <v>166647</v>
+      </c>
+      <c r="F16" s="5">
+        <v>880</v>
+      </c>
+      <c r="G16" s="5">
+        <v>167527</v>
+      </c>
+      <c r="H16" s="4">
+        <v>127447236.59999999</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="4">
+        <v>221461209.96000001</v>
+      </c>
+      <c r="D17" s="4">
+        <v>53742337.810000002</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1046393</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1255</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1047648</v>
+      </c>
+      <c r="H17" s="4">
+        <v>275203547.76999998</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4">
+        <v>45637900.280000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2421769.63</v>
+      </c>
+      <c r="E18" s="5">
+        <v>81626</v>
+      </c>
+      <c r="F18" s="5">
+        <v>143</v>
+      </c>
+      <c r="G18" s="5">
+        <v>81769</v>
+      </c>
+      <c r="H18" s="4">
+        <v>48059669.909999996</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4">
+        <v>877874527.28999996</v>
+      </c>
+      <c r="D19" s="4">
+        <v>6433409265.8299999</v>
+      </c>
+      <c r="E19" s="5">
+        <v>546195</v>
+      </c>
+      <c r="F19" s="5">
+        <v>126277</v>
+      </c>
+      <c r="G19" s="5">
+        <v>672472</v>
+      </c>
+      <c r="H19" s="4">
+        <v>7311283793.1199999</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4">
+        <v>3487262073.9099998</v>
+      </c>
+      <c r="D20" s="4">
+        <v>813423623.90999997</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5658436</v>
+      </c>
+      <c r="F20" s="5">
+        <v>35087</v>
+      </c>
+      <c r="G20" s="5">
+        <v>5693523</v>
+      </c>
+      <c r="H20" s="4">
+        <v>4300685697.8199997</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4">
+        <v>24161033.18</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1240245.6599999999</v>
+      </c>
+      <c r="E21" s="5">
+        <v>32603</v>
+      </c>
+      <c r="F21" s="5">
+        <v>49</v>
+      </c>
+      <c r="G21" s="5">
+        <v>32652</v>
+      </c>
+      <c r="H21" s="4">
+        <v>25401278.84</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4">
+        <v>30296393.460000001</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1090003.75</v>
+      </c>
+      <c r="E22" s="5">
+        <v>29892</v>
+      </c>
+      <c r="F22" s="5">
+        <v>66</v>
+      </c>
+      <c r="G22" s="5">
+        <v>29958</v>
+      </c>
+      <c r="H22" s="4">
+        <v>31386397.210000001</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4">
+        <v>78807628.590000004</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3918027.22</v>
+      </c>
+      <c r="E23" s="5">
+        <v>68325</v>
+      </c>
+      <c r="F23" s="5">
+        <v>199</v>
+      </c>
+      <c r="G23" s="5">
+        <v>68524</v>
+      </c>
+      <c r="H23" s="4">
+        <v>82725655.810000002</v>
+      </c>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5246187.91</v>
+      </c>
+      <c r="D24" s="4">
+        <v>13377</v>
+      </c>
+      <c r="E24" s="5">
+        <v>6354</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>6355</v>
+      </c>
+      <c r="H24" s="4">
+        <v>5259564.91</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1689080.07</v>
+      </c>
+      <c r="D25" s="4">
+        <v>224630.3</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2055</v>
+      </c>
+      <c r="F25" s="5">
+        <v>13</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2068</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1913710.37</v>
+      </c>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="4">
+        <v>6146788.3899999997</v>
+      </c>
+      <c r="D26" s="4">
+        <v>636419.97</v>
+      </c>
+      <c r="E26" s="5">
+        <v>8343</v>
+      </c>
+      <c r="F26" s="5">
+        <v>35</v>
+      </c>
+      <c r="G26" s="5">
+        <v>8378</v>
+      </c>
+      <c r="H26" s="4">
+        <v>6783208.3600000003</v>
+      </c>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3468294.5</v>
+      </c>
+      <c r="D27" s="4">
+        <v>84822.21</v>
+      </c>
+      <c r="E27" s="5">
+        <v>8494</v>
+      </c>
+      <c r="F27" s="5">
+        <v>6</v>
+      </c>
+      <c r="G27" s="5">
+        <v>8500</v>
+      </c>
+      <c r="H27" s="4">
+        <v>3553116.71</v>
+      </c>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="4">
+        <v>57897735.149999999</v>
+      </c>
+      <c r="D28" s="4">
+        <v>49863.87</v>
+      </c>
+      <c r="E28" s="5">
+        <v>102632</v>
+      </c>
+      <c r="F28" s="5">
+        <v>3</v>
+      </c>
+      <c r="G28" s="5">
+        <v>102635</v>
+      </c>
+      <c r="H28" s="4">
+        <v>57947599.020000003</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="4">
+        <v>610898820.84000003</v>
+      </c>
+      <c r="D29" s="4">
+        <v>37402609.710000001</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1445375</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1627</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1447002</v>
+      </c>
+      <c r="H29" s="4">
+        <v>648301430.54999995</v>
+      </c>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" ref="C30:H30" si="0">SUM(C3:C29)</f>
+        <v>11642843543.039997</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" si="0"/>
+        <v>8935864319.3999977</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="0"/>
+        <v>17371371</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="0"/>
+        <v>220369</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="0"/>
+        <v>17591740</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="0"/>
+        <v>20578707862.439999</v>
+      </c>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.4609375" customWidth="1"/>
-    <col min="2" max="2" width="39.4609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.23046875" customWidth="1"/>
-    <col min="4" max="4" width="15.07421875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.23046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="26" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="62" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4">
         <v>4833047.49</v>
@@ -3083,14 +3728,14 @@
       <c r="F3" s="5">
         <v>191</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>5570</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <v>9347502.9700000007</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -3106,14 +3751,14 @@
       <c r="F4" s="5">
         <v>1113</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>695146</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <v>307677348.61000001</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -3129,14 +3774,14 @@
       <c r="F5" s="5">
         <v>187</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>148229</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <v>86152913.329999998</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
@@ -3152,14 +3797,14 @@
       <c r="F6" s="5">
         <v>40855</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>3834076</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <v>4656345834.8400002</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
@@ -3175,14 +3820,14 @@
       <c r="F7" s="5">
         <v>2867</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>224789</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>269971308.01999998</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -3198,14 +3843,14 @@
       <c r="F8" s="5">
         <v>3</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>6123</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>3646847.9799999995</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
@@ -3221,14 +3866,14 @@
       <c r="F9" s="5">
         <v>442</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>110132</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>74674402.150000006</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
@@ -3244,14 +3889,14 @@
       <c r="F10" s="5">
         <v>855</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>1435151</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="4">
         <v>529233424.75</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -3267,14 +3912,14 @@
       <c r="F11" s="5">
         <v>1081</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>831036</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="4">
         <v>527210175.74999994</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
@@ -3290,14 +3935,14 @@
       <c r="F12" s="5">
         <v>0</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>8987</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="4">
         <v>5274986.87</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
@@ -3313,14 +3958,14 @@
       <c r="F13" s="5">
         <v>78</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>921360</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="4">
         <v>454110965.59999996</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
@@ -3336,14 +3981,14 @@
       <c r="F14" s="5">
         <v>6610</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>535176</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="4">
         <v>671414345.07999992</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
@@ -3359,14 +4004,14 @@
       <c r="F15" s="5">
         <v>4</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>44768</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="4">
         <v>18768587.580000002</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
@@ -3382,14 +4027,14 @@
       <c r="F16" s="5">
         <v>1247</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>199987</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="4">
         <v>150347709.36000001</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
@@ -3405,14 +4050,14 @@
       <c r="F17" s="5">
         <v>1082</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>302298</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="4">
         <v>171317314.49000001</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
@@ -3428,16 +4073,16 @@
       <c r="F18" s="5">
         <v>61</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>86181</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="4">
         <v>47089965.969999999</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="2" t="s">
-        <v>42</v>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="4">
         <v>1009213016.1699996</v>
@@ -3451,16 +4096,16 @@
       <c r="F19" s="5">
         <v>120418</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>726722</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="4">
         <v>7082157721.9799995</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="2" t="s">
-        <v>43</v>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="4">
         <v>3742442605.6900001</v>
@@ -3474,16 +4119,16 @@
       <c r="F20" s="5">
         <v>30122</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>6347454</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="4">
         <v>4485143095.5600004</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4">
         <v>28655467.090000004</v>
@@ -3497,16 +4142,16 @@
       <c r="F21" s="5">
         <v>17</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>42540</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="4">
         <v>29037534.400000002</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4">
         <v>27363464.850000001</v>
@@ -3520,16 +4165,16 @@
       <c r="F22" s="5">
         <v>23</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>31141</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="4">
         <v>27758961.690000001</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4">
         <v>89347687.640000001</v>
@@ -3543,16 +4188,16 @@
       <c r="F23" s="5">
         <v>215</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>89596</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="4">
         <v>93379361.640000001</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4">
         <v>5945274.9500000002</v>
@@ -3566,16 +4211,16 @@
       <c r="F24" s="5">
         <v>0</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>7707</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="4">
         <v>5945274.9500000002</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4">
         <v>1658850.46</v>
@@ -3589,16 +4234,16 @@
       <c r="F25" s="5">
         <v>3</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>2588</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="4">
         <v>1694184.26</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" s="4">
         <v>10172465.439999999</v>
@@ -3612,16 +4257,16 @@
       <c r="F26" s="5">
         <v>56</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>15001</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="4">
         <v>11181192.699999999</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" s="4">
         <v>3858945.31</v>
@@ -3635,16 +4280,16 @@
       <c r="F27" s="5">
         <v>4</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>8035</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="4">
         <v>3914599.31</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28" s="4">
         <v>61443314.780000001</v>
@@ -3658,21 +4303,21 @@
       <c r="F28" s="5">
         <v>7</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>121509</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="4">
         <v>61536620.480000004</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="7">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="4">
         <v>649378403.38000107</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="4">
         <v>52973367.370001793</v>
       </c>
       <c r="E29" s="5">
@@ -3681,137 +4326,138 @@
       <c r="F29" s="5">
         <v>2085</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>1395592</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="4">
         <v>702351770.75000286</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="10">
+    <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="9">
         <f t="shared" ref="C30:H30" si="0">SUM(C3:C29)</f>
         <v>12089320059.840002</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <f t="shared" si="0"/>
         <v>8397363891.2300024</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <f t="shared" si="0"/>
         <v>17967268</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <f t="shared" si="0"/>
         <v>209626</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <f t="shared" si="0"/>
         <v>18176894</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f t="shared" si="0"/>
         <v>20486683951.070004</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="12" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="12" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="12" t="s">
-        <v>38</v>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.61328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.69140625" customWidth="1"/>
-    <col min="2" max="2" width="42.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.23046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.69140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="3" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="26" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4">
         <v>3010481.35</v>
@@ -3825,14 +4471,14 @@
       <c r="F3" s="5">
         <v>483</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>5759</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <v>9563035.9700000007</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -3848,14 +4494,14 @@
       <c r="F4" s="5">
         <v>9689</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>947977</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <v>396432204.43000007</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -3871,14 +4517,14 @@
       <c r="F5" s="5">
         <v>531</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>170866</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <v>92547321.339999989</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
@@ -3894,14 +4540,14 @@
       <c r="F6" s="5">
         <v>201525</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>4515696</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <v>4754599738.2699966</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
@@ -3917,14 +4563,14 @@
       <c r="F7" s="5">
         <v>14993</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>295811</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>313675676.79999995</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -3940,14 +4586,14 @@
       <c r="F8" s="5">
         <v>77</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>5868</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>3155355.8499999996</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
@@ -3963,14 +4609,14 @@
       <c r="F9" s="5">
         <v>2085</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>83094</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>50539953.29999999</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
@@ -3986,14 +4632,14 @@
       <c r="F10" s="5">
         <v>4565</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>579049</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="4">
         <v>319561070.8499999</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -4009,14 +4655,14 @@
       <c r="F11" s="5">
         <v>11026</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>1237049</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="4">
         <v>493739068.6699999</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
@@ -4032,14 +4678,14 @@
       <c r="F12" s="5">
         <v>44</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>11444</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="4">
         <v>6278128.9200000018</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
@@ -4055,14 +4701,14 @@
       <c r="F13" s="5">
         <v>13315</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>1199164</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="4">
         <v>495532606.51000017</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
@@ -4078,14 +4724,14 @@
       <c r="F14" s="5">
         <v>21379</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>640529</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="4">
         <v>597430366.47000003</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
@@ -4101,14 +4747,14 @@
       <c r="F15" s="5">
         <v>43</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>74215</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="4">
         <v>17237278.57</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
@@ -4124,14 +4770,14 @@
       <c r="F16" s="5">
         <v>5482</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>209640</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="4">
         <v>151363505.22999999</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
@@ -4147,14 +4793,14 @@
       <c r="F17" s="5">
         <v>8342</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>234014</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="4">
         <v>165792595.38</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
@@ -4170,16 +4816,16 @@
       <c r="F18" s="5">
         <v>867</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>94779</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="4">
         <v>44884286.620000005</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="2" t="s">
-        <v>42</v>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="4">
         <v>139817826.87</v>
@@ -4193,16 +4839,16 @@
       <c r="F19" s="5">
         <v>240209</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>711361</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="4">
         <v>6297216121.6099997</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="2" t="s">
-        <v>43</v>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="4">
         <v>3248612129.9699984</v>
@@ -4216,16 +4862,16 @@
       <c r="F20" s="5">
         <v>127927</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>7092652</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="4">
         <v>4613508318.9299974</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4">
         <v>19803440.730000012</v>
@@ -4239,16 +4885,16 @@
       <c r="F21" s="5">
         <v>549</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>54580</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="4">
         <v>23233113.050000012</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4">
         <v>24969657.81000001</v>
@@ -4262,16 +4908,16 @@
       <c r="F22" s="5">
         <v>529</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>36124</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="4">
         <v>28594165.56000001</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4">
         <v>62080408.979999974</v>
@@ -4285,16 +4931,16 @@
       <c r="F23" s="5">
         <v>5887</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>112453</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="4">
         <v>102058174.35999998</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4">
         <v>3946575.3000000003</v>
@@ -4308,16 +4954,16 @@
       <c r="F24" s="5">
         <v>241</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>8244</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="4">
         <v>5405042.8600000003</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4">
         <v>1694351.4500000002</v>
@@ -4331,16 +4977,16 @@
       <c r="F25" s="5">
         <v>29</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>2863</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="4">
         <v>2160987.17</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" s="4">
         <v>8437243.1899999995</v>
@@ -4354,16 +5000,16 @@
       <c r="F26" s="5">
         <v>154</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>16907</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="4">
         <v>9821780.0099999998</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" s="4">
         <v>3880120.96</v>
@@ -4377,16 +5023,16 @@
       <c r="F27" s="5">
         <v>124</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>9306</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="4">
         <v>4858876.03</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28" s="4">
         <v>52808894.339999996</v>
@@ -4400,21 +5046,21 @@
       <c r="F28" s="5">
         <v>171</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>125623</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="4">
         <v>54199578.899999999</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="7">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="4">
         <v>638583685.44000053</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="4">
         <v>245591341.97000006</v>
       </c>
       <c r="E29" s="5">
@@ -4423,148 +5069,149 @@
       <c r="F29" s="5">
         <v>33613</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>2003590</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="4">
         <v>884175027.41000056</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="10">
+    <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="9">
         <f t="shared" ref="C30:H30" si="0">SUM(C3:C29)</f>
         <v>9200532295.2099953</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <f t="shared" si="0"/>
         <v>10737031083.859993</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <f t="shared" si="0"/>
         <v>19774778</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <f t="shared" si="0"/>
         <v>703879</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <f t="shared" si="0"/>
         <v>20478657</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f t="shared" si="0"/>
         <v>19937563379.069992</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="12" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="12" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B38" s="12" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.69140625" customWidth="1"/>
-    <col min="2" max="2" width="42.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.84375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.61328125" customWidth="1"/>
-    <col min="6" max="6" width="14.15234375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="3" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="16.15234375" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="26" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4">
         <v>3293962.05</v>
@@ -4578,14 +5225,14 @@
       <c r="F3" s="5">
         <v>494</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>6346</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <v>9256865.25</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -4601,14 +5248,14 @@
       <c r="F4" s="5">
         <v>6351</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>1037066</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <v>408881746.4000001</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -4624,14 +5271,14 @@
       <c r="F5" s="5">
         <v>581</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>178757</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <v>96392587.509999946</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
@@ -4647,14 +5294,14 @@
       <c r="F6" s="5">
         <v>128021</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>4652748</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <v>4537063116.2500019</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
@@ -4670,14 +5317,14 @@
       <c r="F7" s="5">
         <v>12944</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>332031</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>329630938.93000013</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -4693,14 +5340,14 @@
       <c r="F8" s="5">
         <v>16</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>5581</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>2541780.2799999984</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
@@ -4716,14 +5363,14 @@
       <c r="F9" s="5">
         <v>1728</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>84116</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>48689834.620000005</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
@@ -4739,14 +5386,14 @@
       <c r="F10" s="5">
         <v>3475</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>675984</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="4">
         <v>369764352.90999997</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -4762,14 +5409,14 @@
       <c r="F11" s="5">
         <v>6970</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>1256202</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="4">
         <v>456993971.31000024</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
@@ -4785,14 +5432,14 @@
       <c r="F12" s="5">
         <v>1</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>19625</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="4">
         <v>9832747.8500000071</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
@@ -4808,14 +5455,14 @@
       <c r="F13" s="5">
         <v>636</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>1262146</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="4">
         <v>453542717.47000039</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
@@ -4831,14 +5478,14 @@
       <c r="F14" s="5">
         <v>20791</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>647477</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="4">
         <v>571467518.54999995</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
@@ -4854,14 +5501,14 @@
       <c r="F15" s="5">
         <v>28</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>85607</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="4">
         <v>18816937.890000001</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
@@ -4877,14 +5524,14 @@
       <c r="F16" s="5">
         <v>4057</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>209853</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="4">
         <v>136391478.79000005</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
@@ -4900,14 +5547,14 @@
       <c r="F17" s="5">
         <v>6950</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>225802</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="4">
         <v>151858755.08999997</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
@@ -4923,16 +5570,16 @@
       <c r="F18" s="5">
         <v>553</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>107662</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="4">
         <v>48577203.129999995</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="2" t="s">
-        <v>42</v>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="4">
         <v>123499158.48999999</v>
@@ -4946,16 +5593,16 @@
       <c r="F19" s="5">
         <v>236806</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>665395</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="4">
         <v>6015026120.79</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="2" t="s">
-        <v>43</v>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="4">
         <v>3206312185.4600019</v>
@@ -4969,16 +5616,16 @@
       <c r="F20" s="5">
         <v>71349</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>6719815</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="4">
         <v>4244130443.9000015</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4">
         <v>24551967.370000008</v>
@@ -4992,16 +5639,16 @@
       <c r="F21" s="5">
         <v>71</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>62582</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="4">
         <v>25328952.930000007</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4">
         <v>27936041.239999995</v>
@@ -5015,16 +5662,16 @@
       <c r="F22" s="5">
         <v>182</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>39416</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="4">
         <v>29387758.659999996</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4">
         <v>69398000.860000014</v>
@@ -5038,16 +5685,16 @@
       <c r="F23" s="5">
         <v>592</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>111556</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="4">
         <v>75150495.100000009</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4">
         <v>3871085.6100000003</v>
@@ -5061,16 +5708,16 @@
       <c r="F24" s="5">
         <v>5</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>7479</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="4">
         <v>3894037.5300000003</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4">
         <v>2268415.44</v>
@@ -5084,16 +5731,16 @@
       <c r="F25" s="5">
         <v>30</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>3309</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="4">
         <v>2653568.25</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" s="4">
         <v>8330954.4399999995</v>
@@ -5107,16 +5754,16 @@
       <c r="F26" s="5">
         <v>243</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>17601</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="4">
         <v>10379468.049999999</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" s="4">
         <v>4263273.0600000005</v>
@@ -5130,16 +5777,16 @@
       <c r="F27" s="5">
         <v>28</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>10050</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="4">
         <v>4466260.7700000005</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28" s="4">
         <v>49179011.569999993</v>
@@ -5153,21 +5800,21 @@
       <c r="F28" s="5">
         <v>144</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>124938</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="4">
         <v>54199013.829999991</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="7">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="4">
         <v>597222538.76000011</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="4">
         <v>235451047.59999996</v>
       </c>
       <c r="E29" s="5">
@@ -5176,134 +5823,135 @@
       <c r="F29" s="5">
         <v>31246</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>1947090</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="4">
         <v>832673586.36000013</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="10">
+    <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="9">
         <f t="shared" ref="C30:H30" si="0">SUM(C3:C29)</f>
         <v>9411348334.7700081</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <f t="shared" si="0"/>
         <v>9535643923.6299992</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <f t="shared" si="0"/>
         <v>19961942</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <f t="shared" si="0"/>
         <v>534292</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <f t="shared" si="0"/>
         <v>20496234</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f t="shared" si="0"/>
         <v>18946992258.400005</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="12" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="12" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="12" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.61328125" customWidth="1"/>
-    <col min="2" max="2" width="42.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.84375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.921875" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="3" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="12.84375" customWidth="1"/>
-    <col min="8" max="8" width="19.07421875" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="26" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4">
         <v>3751038.4800000004</v>
@@ -5317,14 +5965,14 @@
       <c r="F3" s="5">
         <v>573</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>7144</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <v>10937488.859999999</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -5340,14 +5988,14 @@
       <c r="F4" s="5">
         <v>6646</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>1034182</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <v>405579486.45000017</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -5363,14 +6011,14 @@
       <c r="F5" s="5">
         <v>705</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>196576</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <v>101118952.56000003</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
@@ -5386,14 +6034,14 @@
       <c r="F6" s="5">
         <v>127490</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>4902892</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <v>4635562539.7299976</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
@@ -5409,14 +6057,14 @@
       <c r="F7" s="5">
         <v>13447</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>367167</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>351833940.29000002</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -5432,14 +6080,14 @@
       <c r="F8" s="5">
         <v>8</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>7196</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>3221630.6500000013</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
@@ -5455,14 +6103,14 @@
       <c r="F9" s="5">
         <v>1900</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>92528</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>54594710.780000001</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
@@ -5478,14 +6126,14 @@
       <c r="F10" s="5">
         <v>4439</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>731044</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="4">
         <v>407518086.11000001</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -5501,14 +6149,14 @@
       <c r="F11" s="5">
         <v>7136</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>1324274</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="4">
         <v>463234775.05000019</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
@@ -5524,14 +6172,14 @@
       <c r="F12" s="5">
         <v>5</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>22505</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="4">
         <v>9569800.2600000035</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
@@ -5547,14 +6195,14 @@
       <c r="F13" s="5">
         <v>825</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>1318252</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="4">
         <v>462630084.38</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
@@ -5570,14 +6218,14 @@
       <c r="F14" s="5">
         <v>24684</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>718761</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="4">
         <v>637082805.96999991</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
@@ -5593,14 +6241,14 @@
       <c r="F15" s="5">
         <v>34</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>98588</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="4">
         <v>22847086.539999995</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
@@ -5616,14 +6264,14 @@
       <c r="F16" s="5">
         <v>4188</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>228713</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="4">
         <v>141974612.78999996</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
@@ -5639,14 +6287,14 @@
       <c r="F17" s="5">
         <v>6196</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>263270</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="4">
         <v>148895828.81999999</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
@@ -5662,16 +6310,16 @@
       <c r="F18" s="5">
         <v>560</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>113944</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="4">
         <v>49275741.059999995</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="2" t="s">
-        <v>42</v>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="4">
         <v>106071198.48999999</v>
@@ -5685,16 +6333,16 @@
       <c r="F19" s="5">
         <v>231731</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>637282</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="4">
         <v>6009324628.6999998</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="2" t="s">
-        <v>43</v>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="4">
         <v>3059697945.2700005</v>
@@ -5711,13 +6359,13 @@
       <c r="G20" s="4">
         <v>6516390</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="4">
         <v>4098242036.8200016</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4">
         <v>26113353.690000042</v>
@@ -5731,16 +6379,16 @@
       <c r="F21" s="5">
         <v>141</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>60653</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="4">
         <v>27530254.610000044</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4">
         <v>26023237.250000007</v>
@@ -5754,16 +6402,16 @@
       <c r="F22" s="5">
         <v>185</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>38814</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="4">
         <v>27543874.430000007</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4">
         <v>69801205.250000045</v>
@@ -5777,16 +6425,16 @@
       <c r="F23" s="5">
         <v>625</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>112824</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="4">
         <v>74620313.440000042</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4">
         <v>3425386.8600000003</v>
@@ -5800,16 +6448,16 @@
       <c r="F24" s="5">
         <v>10</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>7172</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="4">
         <v>3473743.1000000006</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4">
         <v>2629126.0900000003</v>
@@ -5823,16 +6471,16 @@
       <c r="F25" s="5">
         <v>45</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>4151</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="4">
         <v>3490424.5000000005</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" s="4">
         <v>7830143.7800000012</v>
@@ -5846,16 +6494,16 @@
       <c r="F26" s="5">
         <v>300</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>16788</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="4">
         <v>10505264.98</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" s="4">
         <v>4273881</v>
@@ -5869,16 +6517,16 @@
       <c r="F27" s="5">
         <v>7</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>10736</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="4">
         <v>4349389.1500000004</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28" s="4">
         <v>57002192.439999998</v>
@@ -5892,21 +6540,21 @@
       <c r="F28" s="5">
         <v>181</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>146261</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="4">
         <v>64826719.149999999</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="7">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="4">
         <v>535872093.47000003</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="4">
         <v>263614622.26999992</v>
       </c>
       <c r="E29" s="5">
@@ -5915,79 +6563,79 @@
       <c r="F29" s="5">
         <v>32054</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>1582908</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="4">
         <v>799486715.74000001</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="10">
+    <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="9">
         <f t="shared" ref="C30:H30" si="0">SUM(C3:C29)</f>
         <v>9361134986.3199997</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <f t="shared" si="0"/>
         <v>9668135948.6000023</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <f t="shared" si="0"/>
         <v>20026166</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <f t="shared" si="0"/>
         <v>534849</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <f t="shared" si="0"/>
         <v>20561015</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f t="shared" si="0"/>
         <v>19029270934.920002</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="12" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="12" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="12" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>